--- a/daily/合约交易计划.xlsx
+++ b/daily/合约交易计划.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\51943\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\githubs\invest_daily\daily\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E6BC097-24AE-4693-A5D6-DD19D9DFD769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F033AC51-15EC-42E7-8715-69F40C061148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="3288" yWindow="612" windowWidth="17280" windowHeight="8964" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="交易计划" sheetId="3" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="资金曲线" sheetId="5" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="68">
   <si>
     <t>仓位</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -217,10 +218,6 @@
   </si>
   <si>
     <t>杠杆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>假设原始资金1万，上涨10%增加1/4仓位</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -291,6 +288,18 @@
   </si>
   <si>
     <t>金额USD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>假设原始资金1万，上涨5%增加1个仓位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>假设原始资金1万，上涨5%增加1仓位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>假设原始资金1万，上涨8%增加1/4仓位</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -301,7 +310,7 @@
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="0_ "/>
-    <numFmt numFmtId="183" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="178" formatCode="yyyy/m/d;@"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -398,7 +407,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -426,28 +435,32 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1633,6 +1646,99 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>223588</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>52621</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED5F8611-833F-4F7A-8318-8276C8C6AD1A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8148388" cy="3382561"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>202517</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>145979</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4393FDEC-70A2-4ABB-B8B9-BF033BE09AEB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="3596640"/>
+          <a:ext cx="8127316" cy="3384479"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1641,7 +1747,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CAEACE"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1898,7 +2004,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A62FA298-69A0-491E-BCC2-354B65F5E7D1}">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
@@ -1920,21 +2026,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="D1" s="21" t="s">
+      <c r="B1" s="31"/>
+      <c r="D1" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
     </row>
     <row r="2" spans="1:12" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A2" s="17" t="s">
@@ -2055,7 +2161,7 @@
       </c>
       <c r="B5" s="18">
         <f ca="1">NOW()</f>
-        <v>44546.414140046298</v>
+        <v>44548.847963657405</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>24</v>
@@ -2288,7 +2394,7 @@
       </c>
       <c r="B11" s="18">
         <f ca="1">NOW()</f>
-        <v>44546.414140046298</v>
+        <v>44548.847963888889</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>30</v>
@@ -2429,17 +2535,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="21"/>
+      <c r="B1" s="31"/>
     </row>
     <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
@@ -2447,7 +2553,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
@@ -2455,7 +2561,7 @@
         <v>36</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
@@ -2463,14 +2569,14 @@
         <v>38</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="23">
+      <c r="B6" s="21">
         <v>3722.6</v>
       </c>
     </row>
@@ -2479,7 +2585,7 @@
         <v>40</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
@@ -2503,14 +2609,14 @@
         <v>19</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" s="23">
+        <v>55</v>
+      </c>
+      <c r="B11" s="21">
         <v>3917.5</v>
       </c>
     </row>
@@ -2519,43 +2625,43 @@
         <v>41</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="23">
+      <c r="B13" s="21">
         <v>3917.5</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B14" s="17"/>
     </row>
     <row r="15" spans="1:2" ht="166.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="24" t="s">
-        <v>60</v>
-      </c>
     </row>
     <row r="19" spans="1:2" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="21"/>
+      <c r="B19" s="31"/>
     </row>
     <row r="20" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
         <v>14</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
@@ -2563,7 +2669,7 @@
         <v>16</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
@@ -2571,7 +2677,7 @@
         <v>36</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
@@ -2579,14 +2685,14 @@
         <v>38</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="23">
+      <c r="B24" s="21">
         <v>3788</v>
       </c>
     </row>
@@ -2619,14 +2725,14 @@
         <v>19</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="B29" s="23">
+        <v>55</v>
+      </c>
+      <c r="B29" s="21">
         <v>4216</v>
       </c>
     </row>
@@ -2640,19 +2746,19 @@
       <c r="A31" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B31" s="23"/>
+      <c r="B31" s="21"/>
     </row>
     <row r="32" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B32" s="17"/>
     </row>
     <row r="33" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="B33" s="24"/>
+        <v>58</v>
+      </c>
+      <c r="B33" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2670,182 +2776,182 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B54DBC6B-8109-4FD8-8CE3-B040171D51F3}">
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" style="25" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="26"/>
+    <col min="1" max="1" width="13.44140625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="28" t="s">
-        <v>65</v>
-      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="25">
+      <c r="A2" s="23">
         <v>44545</v>
       </c>
-      <c r="B2" s="26">
+      <c r="B2" s="24">
         <v>10000</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="25">
+      <c r="A3" s="23">
         <v>44546</v>
       </c>
-      <c r="B3" s="26">
+      <c r="B3" s="24">
         <v>7158</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="25">
+      <c r="A4" s="23">
         <v>44547</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="25">
+      <c r="A5" s="23">
         <v>44548</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="25">
+      <c r="A6" s="23">
         <v>44549</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="25">
+      <c r="A7" s="23">
         <v>44550</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="25">
+      <c r="A8" s="23">
         <v>44551</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="25">
+      <c r="A9" s="23">
         <v>44552</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="25">
+      <c r="A10" s="23">
         <v>44553</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="25">
+      <c r="A11" s="23">
         <v>44554</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="25">
+      <c r="A12" s="23">
         <v>44555</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="25">
+      <c r="A13" s="23">
         <v>44556</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="25">
+      <c r="A14" s="23">
         <v>44557</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="25">
+      <c r="A15" s="23">
         <v>44558</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="25">
+      <c r="A16" s="23">
         <v>44559</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="25">
+      <c r="A17" s="23">
         <v>44560</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="25">
+      <c r="A18" s="23">
         <v>44561</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="25">
+      <c r="A19" s="23">
         <v>44562</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="25">
+      <c r="A20" s="23">
         <v>44563</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="25">
+      <c r="A21" s="23">
         <v>44564</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="25">
+      <c r="A22" s="23">
         <v>44565</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="25">
+      <c r="A23" s="23">
         <v>44566</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="25">
+      <c r="A24" s="23">
         <v>44567</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="25">
+      <c r="A25" s="23">
         <v>44568</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="25">
+      <c r="A26" s="23">
         <v>44569</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="25">
+      <c r="A27" s="23">
         <v>44570</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="25">
+      <c r="A28" s="23">
         <v>44571</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="25">
+      <c r="A29" s="23">
         <v>44572</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="25">
+      <c r="A30" s="23">
         <v>44573</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="25">
+      <c r="A31" s="23">
         <v>44574</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="25">
+      <c r="A32" s="23">
         <v>44575</v>
       </c>
     </row>
@@ -2886,30 +2992,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
     </row>
     <row r="2" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
     </row>
     <row r="3" spans="1:9" ht="22.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
@@ -3301,17 +3407,17 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
     </row>
     <row r="17" spans="1:9" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A17" s="5" t="s">
@@ -3714,62 +3820,62 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03564461-AD84-46B6-986E-0986BE7397CB}">
-  <dimension ref="A1:U28"/>
+  <dimension ref="A1:U53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U19" sqref="U19"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="7" max="7" width="12.44140625" customWidth="1"/>
     <col min="12" max="12" width="11.21875" customWidth="1"/>
-    <col min="13" max="13" width="10.88671875" customWidth="1"/>
+    <col min="13" max="13" width="10.88671875" style="27" customWidth="1"/>
     <col min="14" max="14" width="12.109375" style="19" customWidth="1"/>
-    <col min="16" max="16" width="8.88671875" customWidth="1"/>
+    <col min="16" max="16" width="10.6640625" customWidth="1"/>
     <col min="17" max="17" width="13.21875" customWidth="1"/>
     <col min="18" max="18" width="6.77734375" customWidth="1"/>
     <col min="19" max="19" width="11.6640625" customWidth="1"/>
-    <col min="20" max="20" width="8.88671875" customWidth="1"/>
+    <col min="20" max="20" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
     </row>
     <row r="2" spans="1:21" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="K2" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="K2" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
     </row>
     <row r="3" spans="1:21" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
@@ -3803,9 +3909,9 @@
         <v>46</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="M3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="M3" s="28" t="s">
         <v>7</v>
       </c>
       <c r="N3" s="5" t="s">
@@ -3830,7 +3936,7 @@
         <v>2</v>
       </c>
       <c r="U3" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.6" x14ac:dyDescent="0.35">
@@ -3870,7 +3976,7 @@
       <c r="L4" s="10">
         <v>2500</v>
       </c>
-      <c r="M4" s="9">
+      <c r="M4" s="29">
         <v>2500</v>
       </c>
       <c r="N4" s="10">
@@ -3891,12 +3997,12 @@
         <v>4</v>
       </c>
       <c r="S4" s="12">
-        <f>R4*0.08</f>
-        <v>0.32</v>
+        <f>R4*0.05</f>
+        <v>0.2</v>
       </c>
       <c r="T4" s="14">
         <f>(L4+N4)*S4</f>
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="U4">
         <v>1</v>
@@ -3921,55 +4027,55 @@
         <v>0.15</v>
       </c>
       <c r="F5" s="10">
-        <f t="shared" ref="F5:F14" si="0">D5-1*(B5+D5)*E5</f>
+        <f t="shared" ref="F5:F13" si="0">D5-1*(B5+D5)*E5</f>
         <v>-90</v>
       </c>
       <c r="G5" s="12">
-        <f t="shared" ref="G5:G14" si="1">F5/10000</f>
+        <f t="shared" ref="G5:G13" si="1">F5/10000</f>
         <v>-8.9999999999999993E-3</v>
       </c>
       <c r="H5" s="12">
         <v>0.3</v>
       </c>
       <c r="I5" s="14">
-        <f t="shared" ref="I5:I14" si="2">(B5+D5)*3*0.1</f>
+        <f t="shared" ref="I5:I13" si="2">(B5+D5)*3*0.1</f>
         <v>1380</v>
       </c>
       <c r="K5" s="9">
         <v>2</v>
       </c>
       <c r="L5" s="10">
-        <f t="shared" ref="L5:L14" si="3">M5+L4+N4</f>
+        <f t="shared" ref="L5:L13" si="3">M5+L4+N4</f>
         <v>5000</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M5" s="29">
         <v>2500</v>
       </c>
       <c r="N5" s="10">
         <f>T4</f>
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="O5" s="12">
         <v>0.16</v>
       </c>
       <c r="P5" s="10">
-        <f t="shared" ref="P5:P14" si="4">N5-1*(L5+N5)*O5</f>
-        <v>-128</v>
+        <f t="shared" ref="P5:P13" si="4">N5-1*(L5+N5)*O5</f>
+        <v>-380</v>
       </c>
       <c r="Q5" s="12">
-        <f t="shared" ref="Q5:Q14" si="5">P5/10000</f>
-        <v>-1.2800000000000001E-2</v>
+        <f t="shared" ref="Q5:Q13" si="5">P5/10000</f>
+        <v>-3.7999999999999999E-2</v>
       </c>
       <c r="R5" s="14">
         <v>4</v>
       </c>
       <c r="S5" s="12">
-        <f t="shared" ref="S5:S14" si="6">R5*0.08</f>
-        <v>0.32</v>
+        <f t="shared" ref="S5:S13" si="6">R5*0.05</f>
+        <v>0.2</v>
       </c>
       <c r="T5" s="14">
-        <f t="shared" ref="T5:T14" si="7">(L5+N5)*S5</f>
-        <v>1856</v>
+        <f t="shared" ref="T5:T13" si="7">(L5+N5)*S5</f>
+        <v>1100</v>
       </c>
       <c r="U5">
         <f>U4*1.03</f>
@@ -3981,14 +4087,14 @@
         <v>3</v>
       </c>
       <c r="B6" s="10">
-        <f t="shared" ref="B6:B14" si="8">C6+B5+D5</f>
+        <f t="shared" ref="B6:B13" si="8">C6+B5+D5</f>
         <v>6600</v>
       </c>
       <c r="C6" s="9">
         <v>2000</v>
       </c>
       <c r="D6" s="11">
-        <f t="shared" ref="D6:D14" si="9">I5</f>
+        <f t="shared" ref="D6:D13" si="9">I5</f>
         <v>1380</v>
       </c>
       <c r="E6" s="12">
@@ -4014,39 +4120,39 @@
       </c>
       <c r="L6" s="10">
         <f t="shared" si="3"/>
-        <v>8300</v>
-      </c>
-      <c r="M6" s="9">
+        <v>8000</v>
+      </c>
+      <c r="M6" s="29">
         <v>2500</v>
       </c>
       <c r="N6" s="10">
-        <f t="shared" ref="N6:N14" si="10">T5</f>
-        <v>1856</v>
+        <f t="shared" ref="N6:N13" si="10">T5</f>
+        <v>1100</v>
       </c>
       <c r="O6" s="12">
         <v>0.16</v>
       </c>
       <c r="P6" s="10">
         <f t="shared" si="4"/>
-        <v>231.03999999999996</v>
+        <v>-356</v>
       </c>
       <c r="Q6" s="12">
         <f t="shared" si="5"/>
-        <v>2.3103999999999996E-2</v>
+        <v>-3.56E-2</v>
       </c>
       <c r="R6" s="14">
         <v>4</v>
       </c>
       <c r="S6" s="12">
         <f t="shared" si="6"/>
-        <v>0.32</v>
+        <v>0.2</v>
       </c>
       <c r="T6" s="14">
         <f t="shared" si="7"/>
-        <v>3249.92</v>
+        <v>1820</v>
       </c>
       <c r="U6">
-        <f t="shared" ref="U6:U14" si="11">U5*1.03</f>
+        <f t="shared" ref="U6:U13" si="11">U5*1.03</f>
         <v>1.0609</v>
       </c>
     </row>
@@ -4088,36 +4194,36 @@
       </c>
       <c r="L7" s="10">
         <f t="shared" si="3"/>
-        <v>12656</v>
-      </c>
-      <c r="M7" s="9">
+        <v>11600</v>
+      </c>
+      <c r="M7" s="29">
         <v>2500</v>
       </c>
       <c r="N7" s="10">
         <f t="shared" si="10"/>
-        <v>3249.92</v>
+        <v>1820</v>
       </c>
       <c r="O7" s="12">
         <v>0.16</v>
       </c>
       <c r="P7" s="10">
         <f t="shared" si="4"/>
-        <v>704.97280000000001</v>
+        <v>-327.19999999999982</v>
       </c>
       <c r="Q7" s="12">
         <f t="shared" si="5"/>
-        <v>7.0497279999999996E-2</v>
+        <v>-3.2719999999999985E-2</v>
       </c>
       <c r="R7" s="14">
         <v>4</v>
       </c>
       <c r="S7" s="12">
         <f t="shared" si="6"/>
-        <v>0.32</v>
+        <v>0.2</v>
       </c>
       <c r="T7" s="14">
         <f t="shared" si="7"/>
-        <v>5089.8944000000001</v>
+        <v>2684</v>
       </c>
       <c r="U7">
         <f t="shared" si="11"/>
@@ -4162,34 +4268,34 @@
       </c>
       <c r="L8" s="10">
         <f t="shared" si="3"/>
-        <v>15905.92</v>
-      </c>
-      <c r="M8" s="9"/>
+        <v>13420</v>
+      </c>
+      <c r="M8" s="29"/>
       <c r="N8" s="10">
         <f t="shared" si="10"/>
-        <v>5089.8944000000001</v>
+        <v>2684</v>
       </c>
       <c r="O8" s="12">
         <v>0.16</v>
       </c>
       <c r="P8" s="10">
         <f t="shared" si="4"/>
-        <v>1730.5640960000001</v>
+        <v>107.36000000000013</v>
       </c>
       <c r="Q8" s="12">
         <f t="shared" si="5"/>
-        <v>0.17305640960000002</v>
+        <v>1.0736000000000013E-2</v>
       </c>
       <c r="R8" s="14">
         <v>4</v>
       </c>
       <c r="S8" s="12">
         <f t="shared" si="6"/>
-        <v>0.32</v>
+        <v>0.2</v>
       </c>
       <c r="T8" s="14">
         <f t="shared" si="7"/>
-        <v>6718.6606080000001</v>
+        <v>3220.8</v>
       </c>
       <c r="U8">
         <f t="shared" si="11"/>
@@ -4232,34 +4338,34 @@
       </c>
       <c r="L9" s="10">
         <f t="shared" si="3"/>
-        <v>20995.814399999999</v>
-      </c>
-      <c r="M9" s="9"/>
+        <v>16104</v>
+      </c>
+      <c r="M9" s="29"/>
       <c r="N9" s="10">
         <f t="shared" si="10"/>
-        <v>6718.6606080000001</v>
+        <v>3220.8</v>
       </c>
       <c r="O9" s="12">
         <v>0.16</v>
       </c>
       <c r="P9" s="10">
         <f t="shared" si="4"/>
-        <v>2284.3446067200002</v>
+        <v>128.83200000000033</v>
       </c>
       <c r="Q9" s="12">
         <f t="shared" si="5"/>
-        <v>0.22843446067200002</v>
+        <v>1.2883200000000034E-2</v>
       </c>
       <c r="R9" s="14">
         <v>4</v>
       </c>
       <c r="S9" s="12">
         <f t="shared" si="6"/>
-        <v>0.32</v>
+        <v>0.2</v>
       </c>
       <c r="T9" s="14">
         <f t="shared" si="7"/>
-        <v>8868.6320025599998</v>
+        <v>3864.96</v>
       </c>
       <c r="U9">
         <f t="shared" si="11"/>
@@ -4302,34 +4408,34 @@
       </c>
       <c r="L10" s="10">
         <f t="shared" si="3"/>
-        <v>27714.475008000001</v>
-      </c>
-      <c r="M10" s="9"/>
+        <v>19324.8</v>
+      </c>
+      <c r="M10" s="29"/>
       <c r="N10" s="10">
         <f t="shared" si="10"/>
-        <v>8868.6320025599998</v>
+        <v>3864.96</v>
       </c>
       <c r="O10" s="12">
         <v>0.16</v>
       </c>
       <c r="P10" s="10">
         <f t="shared" si="4"/>
-        <v>3015.3348808703995</v>
+        <v>154.59840000000031</v>
       </c>
       <c r="Q10" s="12">
         <f t="shared" si="5"/>
-        <v>0.30153348808703995</v>
+        <v>1.545984000000003E-2</v>
       </c>
       <c r="R10" s="14">
         <v>4</v>
       </c>
       <c r="S10" s="12">
         <f t="shared" si="6"/>
-        <v>0.32</v>
+        <v>0.2</v>
       </c>
       <c r="T10" s="14">
         <f t="shared" si="7"/>
-        <v>11706.594243379201</v>
+        <v>4637.9520000000002</v>
       </c>
       <c r="U10">
         <f t="shared" si="11"/>
@@ -4372,34 +4478,34 @@
       </c>
       <c r="L11" s="10">
         <f t="shared" si="3"/>
-        <v>36583.107010560001</v>
-      </c>
-      <c r="M11" s="9"/>
+        <v>23189.759999999998</v>
+      </c>
+      <c r="M11" s="29"/>
       <c r="N11" s="10">
         <f t="shared" si="10"/>
-        <v>11706.594243379201</v>
+        <v>4637.9520000000002</v>
       </c>
       <c r="O11" s="12">
         <v>0.16</v>
       </c>
       <c r="P11" s="10">
         <f t="shared" si="4"/>
-        <v>3980.2420427489278</v>
+        <v>185.51807999999983</v>
       </c>
       <c r="Q11" s="12">
         <f t="shared" si="5"/>
-        <v>0.39802420427489277</v>
+        <v>1.8551807999999982E-2</v>
       </c>
       <c r="R11" s="14">
         <v>4</v>
       </c>
       <c r="S11" s="12">
         <f t="shared" si="6"/>
-        <v>0.32</v>
+        <v>0.2</v>
       </c>
       <c r="T11" s="14">
         <f t="shared" si="7"/>
-        <v>15452.704401260546</v>
+        <v>5565.5424000000003</v>
       </c>
       <c r="U11">
         <f t="shared" si="11"/>
@@ -4442,34 +4548,34 @@
       </c>
       <c r="L12" s="10">
         <f t="shared" si="3"/>
-        <v>48289.701253939202</v>
-      </c>
-      <c r="M12" s="9"/>
+        <v>27827.712</v>
+      </c>
+      <c r="M12" s="29"/>
       <c r="N12" s="10">
         <f t="shared" si="10"/>
-        <v>15452.704401260546</v>
+        <v>5565.5424000000003</v>
       </c>
       <c r="O12" s="12">
         <v>0.16</v>
       </c>
       <c r="P12" s="10">
         <f t="shared" si="4"/>
-        <v>5253.9194964285853</v>
+        <v>222.62169600000016</v>
       </c>
       <c r="Q12" s="12">
         <f t="shared" si="5"/>
-        <v>0.52539194964285851</v>
+        <v>2.2262169600000017E-2</v>
       </c>
       <c r="R12" s="14">
         <v>4</v>
       </c>
       <c r="S12" s="12">
         <f t="shared" si="6"/>
-        <v>0.32</v>
+        <v>0.2</v>
       </c>
       <c r="T12" s="14">
         <f t="shared" si="7"/>
-        <v>20397.569809663921</v>
+        <v>6678.6508800000001</v>
       </c>
       <c r="U12">
         <f t="shared" si="11"/>
@@ -4512,34 +4618,34 @@
       </c>
       <c r="L13" s="10">
         <f t="shared" si="3"/>
-        <v>63742.405655199749</v>
-      </c>
-      <c r="M13" s="9"/>
+        <v>33393.254399999998</v>
+      </c>
+      <c r="M13" s="29"/>
       <c r="N13" s="10">
         <f t="shared" si="10"/>
-        <v>20397.569809663921</v>
+        <v>6678.6508800000001</v>
       </c>
       <c r="O13" s="12">
         <v>0.16</v>
       </c>
       <c r="P13" s="10">
         <f t="shared" si="4"/>
-        <v>6935.1737352857326</v>
+        <v>267.14603520000037</v>
       </c>
       <c r="Q13" s="12">
         <f t="shared" si="5"/>
-        <v>0.69351737352857323</v>
+        <v>2.6714603520000036E-2</v>
       </c>
       <c r="R13" s="14">
         <v>4</v>
       </c>
       <c r="S13" s="12">
         <f t="shared" si="6"/>
-        <v>0.32</v>
+        <v>0.2</v>
       </c>
       <c r="T13" s="14">
         <f t="shared" si="7"/>
-        <v>26924.792148756376</v>
+        <v>8014.3810560000002</v>
       </c>
       <c r="U13">
         <f t="shared" si="11"/>
@@ -4547,919 +4653,1668 @@
       </c>
     </row>
     <row r="14" spans="1:21" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A14" s="9">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="15"/>
+    </row>
+    <row r="15" spans="1:21" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A15" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="K15" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="31"/>
+      <c r="P15" s="31"/>
+      <c r="Q15" s="31"/>
+      <c r="R15" s="31"/>
+      <c r="S15" s="31"/>
+      <c r="T15" s="31"/>
+    </row>
+    <row r="16" spans="1:21" ht="16.2" x14ac:dyDescent="0.4">
+      <c r="A16" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="10">
-        <f t="shared" si="8"/>
-        <v>67152.794566000011</v>
-      </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="11">
-        <f t="shared" si="9"/>
-        <v>20145.838369800007</v>
-      </c>
-      <c r="E14" s="12">
-        <v>0.15</v>
-      </c>
-      <c r="F14" s="10">
-        <f t="shared" si="0"/>
-        <v>7051.0434294300048</v>
-      </c>
-      <c r="G14" s="12">
-        <f t="shared" si="1"/>
-        <v>0.70510434294300051</v>
-      </c>
-      <c r="H14" s="12">
+      <c r="G16" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="M16" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="P16" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q16" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="R16" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="S16" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="T16" s="13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A17" s="9">
+        <v>1</v>
+      </c>
+      <c r="B17" s="10">
+        <v>2500</v>
+      </c>
+      <c r="C17" s="9">
+        <v>2500</v>
+      </c>
+      <c r="D17" s="11">
+        <v>0</v>
+      </c>
+      <c r="E17" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="F17" s="10">
+        <f>0-1*(B17+D17)*E17</f>
+        <v>-500</v>
+      </c>
+      <c r="G17" s="12">
+        <f>F17/10000</f>
+        <v>-0.05</v>
+      </c>
+      <c r="H17" s="12">
         <v>0.3</v>
       </c>
-      <c r="I14" s="14">
-        <f t="shared" si="2"/>
-        <v>26189.589880740008</v>
-      </c>
-      <c r="K14" s="9">
-        <v>11</v>
-      </c>
-      <c r="L14" s="10">
-        <f t="shared" si="3"/>
-        <v>84139.975464863674</v>
-      </c>
-      <c r="M14" s="9"/>
-      <c r="N14" s="10">
-        <f t="shared" si="10"/>
-        <v>26924.792148756376</v>
-      </c>
-      <c r="O14" s="12">
-        <v>0.16</v>
-      </c>
-      <c r="P14" s="10">
-        <f t="shared" si="4"/>
-        <v>9154.429330577168</v>
-      </c>
-      <c r="Q14" s="12">
-        <f t="shared" si="5"/>
-        <v>0.91544293305771685</v>
-      </c>
-      <c r="R14" s="14">
+      <c r="I17" s="14">
+        <f>(B17+D17)*3*0.1</f>
+        <v>750</v>
+      </c>
+      <c r="K17" s="9">
+        <v>1</v>
+      </c>
+      <c r="L17" s="10">
+        <v>10000</v>
+      </c>
+      <c r="M17" s="30">
+        <v>10000</v>
+      </c>
+      <c r="N17" s="10">
+        <v>0</v>
+      </c>
+      <c r="O17" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="P17" s="10">
+        <f>0-1*(L17+N17)*O17</f>
+        <v>-1000</v>
+      </c>
+      <c r="Q17" s="12">
+        <f>P17/10000</f>
+        <v>-0.1</v>
+      </c>
+      <c r="R17" s="14">
         <v>4</v>
       </c>
-      <c r="S14" s="12">
-        <f t="shared" si="6"/>
+      <c r="S17" s="12">
+        <f>R17*0.08</f>
         <v>0.32</v>
       </c>
-      <c r="T14" s="14">
-        <f t="shared" si="7"/>
-        <v>35540.725636358417</v>
-      </c>
-      <c r="U14">
-        <f t="shared" si="11"/>
-        <v>1.3439163793441222</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="15"/>
-    </row>
-    <row r="16" spans="1:21" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="K16" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="21"/>
-      <c r="R16" s="21"/>
-      <c r="S16" s="21"/>
-      <c r="T16" s="21"/>
-    </row>
-    <row r="17" spans="1:21" ht="16.2" x14ac:dyDescent="0.4">
-      <c r="A17" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="6" t="s">
+      <c r="T17" s="14">
+        <f>(L17+N17)*S17</f>
+        <v>3200</v>
+      </c>
+      <c r="U17">
         <v>0</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="I17" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="L17" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="M17" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="N17" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="P17" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q17" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="R17" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="S17" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="T17" s="13" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A18" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B18" s="10">
-        <v>2500</v>
+        <f>C18+B17+D17</f>
+        <v>5000</v>
       </c>
       <c r="C18" s="9">
         <v>2500</v>
       </c>
       <c r="D18" s="11">
-        <v>0</v>
+        <f>I17</f>
+        <v>750</v>
       </c>
       <c r="E18" s="12">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="F18" s="10">
-        <f>0-1*(B18+D18)*E18</f>
-        <v>-500</v>
+        <f t="shared" ref="F18:F26" si="12">D18-1*(B18+D18)*E18</f>
+        <v>-112.5</v>
       </c>
       <c r="G18" s="12">
-        <f>F18/10000</f>
-        <v>-0.05</v>
+        <f t="shared" ref="G18:G26" si="13">F18/10000</f>
+        <v>-1.125E-2</v>
       </c>
       <c r="H18" s="12">
         <v>0.3</v>
       </c>
       <c r="I18" s="14">
-        <f>(B18+D18)*3*0.1</f>
-        <v>750</v>
+        <f t="shared" ref="I18:I26" si="14">(B18+D18)*3*0.1</f>
+        <v>1725</v>
       </c>
       <c r="K18" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L18" s="10">
+        <f t="shared" ref="L18:L26" si="15">M18+L17+N17</f>
         <v>10000</v>
       </c>
-      <c r="M18" s="10">
-        <v>10000</v>
-      </c>
+      <c r="M18" s="29"/>
       <c r="N18" s="10">
-        <v>0</v>
+        <f>T17</f>
+        <v>3200</v>
       </c>
       <c r="O18" s="12">
-        <v>0.08</v>
+        <v>0.15</v>
       </c>
       <c r="P18" s="10">
-        <f>0-1*(L18+N18)*O18</f>
-        <v>-800</v>
+        <f t="shared" ref="P18:P26" si="16">N18-1*(L18+N18)*O18</f>
+        <v>1220</v>
       </c>
       <c r="Q18" s="12">
-        <f>P18/10000</f>
-        <v>-0.08</v>
+        <f t="shared" ref="Q18:Q26" si="17">P18/10000</f>
+        <v>0.122</v>
       </c>
       <c r="R18" s="14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S18" s="12">
-        <f>R18*0.1</f>
-        <v>0.2</v>
+        <f t="shared" ref="S18:S26" si="18">R18*0.08</f>
+        <v>0.32</v>
       </c>
       <c r="T18" s="14">
-        <f>(L18+N18)*S18</f>
-        <v>2000</v>
+        <f t="shared" ref="T18:T26" si="19">(L18+N18)*S18</f>
+        <v>4224</v>
       </c>
       <c r="U18">
-        <v>0</v>
+        <f>(U17+1)*1.1</f>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A19" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B19" s="10">
-        <f>C19+B18+D18</f>
-        <v>5000</v>
+        <f t="shared" ref="B19:B26" si="20">C19+B18+D18</f>
+        <v>8250</v>
       </c>
       <c r="C19" s="9">
         <v>2500</v>
       </c>
       <c r="D19" s="11">
-        <f>I18</f>
-        <v>750</v>
+        <f t="shared" ref="D19:D26" si="21">I18</f>
+        <v>1725</v>
       </c>
       <c r="E19" s="12">
         <v>0.15</v>
       </c>
       <c r="F19" s="10">
-        <f t="shared" ref="F19:F28" si="12">D19-1*(B19+D19)*E19</f>
-        <v>-112.5</v>
+        <f t="shared" si="12"/>
+        <v>228.75</v>
       </c>
       <c r="G19" s="12">
-        <f t="shared" ref="G19:G28" si="13">F19/10000</f>
-        <v>-1.125E-2</v>
+        <f t="shared" si="13"/>
+        <v>2.2875E-2</v>
       </c>
       <c r="H19" s="12">
         <v>0.3</v>
       </c>
       <c r="I19" s="14">
-        <f t="shared" ref="I19:I28" si="14">(B19+D19)*3*0.1</f>
-        <v>1725</v>
+        <f t="shared" si="14"/>
+        <v>2992.5</v>
       </c>
       <c r="K19" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L19" s="10">
-        <f t="shared" ref="L19:L28" si="15">M19+L18+N18</f>
-        <v>10000</v>
-      </c>
-      <c r="M19" s="9"/>
+        <f t="shared" si="15"/>
+        <v>13200</v>
+      </c>
+      <c r="M19" s="29"/>
       <c r="N19" s="10">
-        <f>T18</f>
-        <v>2000</v>
+        <f t="shared" ref="N19:N26" si="22">T18</f>
+        <v>4224</v>
       </c>
       <c r="O19" s="12">
-        <v>0.08</v>
+        <v>0.15</v>
       </c>
       <c r="P19" s="10">
-        <f t="shared" ref="P19:P28" si="16">N19-1*(L19+N19)*O19</f>
-        <v>1040</v>
+        <f t="shared" si="16"/>
+        <v>1610.4</v>
       </c>
       <c r="Q19" s="12">
-        <f t="shared" ref="Q19:Q28" si="17">P19/10000</f>
-        <v>0.104</v>
+        <f t="shared" si="17"/>
+        <v>0.16104000000000002</v>
       </c>
       <c r="R19" s="14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S19" s="12">
-        <f t="shared" ref="S19:S28" si="18">R19*0.1</f>
-        <v>0.2</v>
+        <f t="shared" si="18"/>
+        <v>0.32</v>
       </c>
       <c r="T19" s="14">
-        <f t="shared" ref="T19:T28" si="19">(L19+N19)*S19</f>
-        <v>2400</v>
-      </c>
-      <c r="U19">
-        <f>(U18+1)*1.1</f>
-        <v>1.1000000000000001</v>
+        <f t="shared" si="19"/>
+        <v>5575.68</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A20" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B20" s="10">
-        <f t="shared" ref="B20:B28" si="20">C20+B19+D19</f>
-        <v>8250</v>
+        <f t="shared" si="20"/>
+        <v>12475</v>
       </c>
       <c r="C20" s="9">
         <v>2500</v>
       </c>
       <c r="D20" s="11">
-        <f t="shared" ref="D20:D28" si="21">I19</f>
-        <v>1725</v>
+        <f t="shared" si="21"/>
+        <v>2992.5</v>
       </c>
       <c r="E20" s="12">
         <v>0.15</v>
       </c>
       <c r="F20" s="10">
         <f t="shared" si="12"/>
-        <v>228.75</v>
+        <v>672.375</v>
       </c>
       <c r="G20" s="12">
         <f t="shared" si="13"/>
-        <v>2.2875E-2</v>
+        <v>6.7237500000000006E-2</v>
       </c>
       <c r="H20" s="12">
         <v>0.3</v>
       </c>
       <c r="I20" s="14">
         <f t="shared" si="14"/>
-        <v>2992.5</v>
+        <v>4640.25</v>
       </c>
       <c r="K20" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L20" s="10">
         <f t="shared" si="15"/>
-        <v>12000</v>
-      </c>
-      <c r="M20" s="9"/>
+        <v>17424</v>
+      </c>
+      <c r="M20" s="29"/>
       <c r="N20" s="10">
-        <f t="shared" ref="N20:N28" si="22">T19</f>
-        <v>2400</v>
+        <f t="shared" si="22"/>
+        <v>5575.68</v>
       </c>
       <c r="O20" s="12">
-        <v>0.08</v>
+        <v>0.15</v>
       </c>
       <c r="P20" s="10">
         <f t="shared" si="16"/>
-        <v>1248</v>
+        <v>2125.7280000000005</v>
       </c>
       <c r="Q20" s="12">
         <f t="shared" si="17"/>
-        <v>0.12479999999999999</v>
+        <v>0.21257280000000006</v>
       </c>
       <c r="R20" s="14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S20" s="12">
         <f t="shared" si="18"/>
-        <v>0.2</v>
+        <v>0.32</v>
       </c>
       <c r="T20" s="14">
         <f t="shared" si="19"/>
-        <v>2880</v>
+        <v>7359.8976000000002</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A21" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B21" s="10">
         <f t="shared" si="20"/>
-        <v>12475</v>
-      </c>
-      <c r="C21" s="9">
-        <v>2500</v>
-      </c>
+        <v>15467.5</v>
+      </c>
+      <c r="C21" s="9"/>
       <c r="D21" s="11">
         <f t="shared" si="21"/>
-        <v>2992.5</v>
+        <v>4640.25</v>
       </c>
       <c r="E21" s="12">
         <v>0.15</v>
       </c>
       <c r="F21" s="10">
         <f t="shared" si="12"/>
-        <v>672.375</v>
+        <v>1624.0875000000001</v>
       </c>
       <c r="G21" s="12">
         <f t="shared" si="13"/>
-        <v>6.7237500000000006E-2</v>
+        <v>0.16240875000000002</v>
       </c>
       <c r="H21" s="12">
         <v>0.3</v>
       </c>
       <c r="I21" s="14">
         <f t="shared" si="14"/>
-        <v>4640.25</v>
+        <v>6032.3250000000007</v>
       </c>
       <c r="K21" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L21" s="10">
         <f t="shared" si="15"/>
-        <v>14400</v>
-      </c>
-      <c r="M21" s="9"/>
+        <v>22999.68</v>
+      </c>
+      <c r="M21" s="29"/>
       <c r="N21" s="10">
         <f t="shared" si="22"/>
-        <v>2880</v>
+        <v>7359.8976000000002</v>
       </c>
       <c r="O21" s="12">
-        <v>0.08</v>
+        <v>0.15</v>
       </c>
       <c r="P21" s="10">
         <f t="shared" si="16"/>
-        <v>1497.6</v>
+        <v>2805.9609600000003</v>
       </c>
       <c r="Q21" s="12">
         <f t="shared" si="17"/>
-        <v>0.14976</v>
+        <v>0.28059609600000002</v>
       </c>
       <c r="R21" s="14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S21" s="12">
         <f t="shared" si="18"/>
-        <v>0.2</v>
+        <v>0.32</v>
       </c>
       <c r="T21" s="14">
         <f t="shared" si="19"/>
-        <v>3456</v>
+        <v>9715.064832</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A22" s="9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B22" s="10">
         <f t="shared" si="20"/>
-        <v>15467.5</v>
+        <v>20107.75</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="11">
         <f t="shared" si="21"/>
-        <v>4640.25</v>
+        <v>6032.3250000000007</v>
       </c>
       <c r="E22" s="12">
         <v>0.15</v>
       </c>
       <c r="F22" s="10">
         <f t="shared" si="12"/>
-        <v>1624.0875000000001</v>
+        <v>2111.3137500000007</v>
       </c>
       <c r="G22" s="12">
         <f t="shared" si="13"/>
-        <v>0.16240875000000002</v>
+        <v>0.21113137500000007</v>
       </c>
       <c r="H22" s="12">
         <v>0.3</v>
       </c>
       <c r="I22" s="14">
         <f t="shared" si="14"/>
-        <v>6032.3250000000007</v>
+        <v>7842.0225000000009</v>
       </c>
       <c r="K22" s="9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L22" s="10">
         <f t="shared" si="15"/>
-        <v>17280</v>
-      </c>
-      <c r="M22" s="9"/>
+        <v>30359.577600000001</v>
+      </c>
+      <c r="M22" s="29"/>
       <c r="N22" s="10">
         <f t="shared" si="22"/>
-        <v>3456</v>
+        <v>9715.064832</v>
       </c>
       <c r="O22" s="12">
-        <v>0.08</v>
+        <v>0.15</v>
       </c>
       <c r="P22" s="10">
         <f t="shared" si="16"/>
-        <v>1797.12</v>
+        <v>3703.8684671999999</v>
       </c>
       <c r="Q22" s="12">
         <f t="shared" si="17"/>
-        <v>0.17971199999999998</v>
+        <v>0.37038684672</v>
       </c>
       <c r="R22" s="14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S22" s="12">
         <f t="shared" si="18"/>
-        <v>0.2</v>
+        <v>0.32</v>
       </c>
       <c r="T22" s="14">
         <f t="shared" si="19"/>
-        <v>4147.2</v>
+        <v>12823.885578240001</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A23" s="9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B23" s="10">
         <f t="shared" si="20"/>
-        <v>20107.75</v>
+        <v>26140.075000000001</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="11">
         <f t="shared" si="21"/>
-        <v>6032.3250000000007</v>
+        <v>7842.0225000000009</v>
       </c>
       <c r="E23" s="12">
         <v>0.15</v>
       </c>
       <c r="F23" s="10">
         <f t="shared" si="12"/>
-        <v>2111.3137500000007</v>
+        <v>2744.707875000001</v>
       </c>
       <c r="G23" s="12">
         <f t="shared" si="13"/>
-        <v>0.21113137500000007</v>
+        <v>0.27447078750000009</v>
       </c>
       <c r="H23" s="12">
         <v>0.3</v>
       </c>
       <c r="I23" s="14">
         <f t="shared" si="14"/>
-        <v>7842.0225000000009</v>
+        <v>10194.629250000002</v>
       </c>
       <c r="K23" s="9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L23" s="10">
         <f t="shared" si="15"/>
-        <v>20736</v>
-      </c>
-      <c r="M23" s="9"/>
+        <v>40074.642432000001</v>
+      </c>
+      <c r="M23" s="29"/>
       <c r="N23" s="10">
         <f t="shared" si="22"/>
-        <v>4147.2</v>
+        <v>12823.885578240001</v>
       </c>
       <c r="O23" s="12">
-        <v>0.08</v>
+        <v>0.15</v>
       </c>
       <c r="P23" s="10">
         <f t="shared" si="16"/>
-        <v>2156.5439999999999</v>
+        <v>4889.1063767040014</v>
       </c>
       <c r="Q23" s="12">
         <f t="shared" si="17"/>
-        <v>0.2156544</v>
+        <v>0.48891063767040016</v>
       </c>
       <c r="R23" s="14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S23" s="12">
         <f t="shared" si="18"/>
-        <v>0.2</v>
+        <v>0.32</v>
       </c>
       <c r="T23" s="14">
         <f t="shared" si="19"/>
-        <v>4976.6400000000003</v>
+        <v>16927.5289632768</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A24" s="9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B24" s="10">
         <f t="shared" si="20"/>
-        <v>26140.075000000001</v>
+        <v>33982.097500000003</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="11">
         <f t="shared" si="21"/>
-        <v>7842.0225000000009</v>
+        <v>10194.629250000002</v>
       </c>
       <c r="E24" s="12">
         <v>0.15</v>
       </c>
       <c r="F24" s="10">
         <f t="shared" si="12"/>
-        <v>2744.707875000001</v>
+        <v>3568.1202375000021</v>
       </c>
       <c r="G24" s="12">
         <f t="shared" si="13"/>
-        <v>0.27447078750000009</v>
+        <v>0.35681202375000021</v>
       </c>
       <c r="H24" s="12">
         <v>0.3</v>
       </c>
       <c r="I24" s="14">
         <f t="shared" si="14"/>
-        <v>10194.629250000002</v>
+        <v>13253.018025000001</v>
       </c>
       <c r="K24" s="9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L24" s="10">
         <f t="shared" si="15"/>
-        <v>24883.200000000001</v>
-      </c>
-      <c r="M24" s="9"/>
+        <v>52898.528010239999</v>
+      </c>
+      <c r="M24" s="29"/>
       <c r="N24" s="10">
         <f t="shared" si="22"/>
-        <v>4976.6400000000003</v>
+        <v>16927.5289632768</v>
       </c>
       <c r="O24" s="12">
-        <v>0.08</v>
+        <v>0.15</v>
       </c>
       <c r="P24" s="10">
         <f t="shared" si="16"/>
-        <v>2587.8528000000001</v>
+        <v>6453.6204172492817</v>
       </c>
       <c r="Q24" s="12">
         <f t="shared" si="17"/>
-        <v>0.25878528000000001</v>
+        <v>0.64536204172492817</v>
       </c>
       <c r="R24" s="14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S24" s="12">
         <f t="shared" si="18"/>
-        <v>0.2</v>
+        <v>0.32</v>
       </c>
       <c r="T24" s="14">
         <f t="shared" si="19"/>
-        <v>5971.9680000000008</v>
+        <v>22344.338231525377</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A25" s="9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B25" s="10">
         <f t="shared" si="20"/>
-        <v>33982.097500000003</v>
+        <v>44176.726750000002</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="11">
         <f t="shared" si="21"/>
-        <v>10194.629250000002</v>
+        <v>13253.018025000001</v>
       </c>
       <c r="E25" s="12">
         <v>0.15</v>
       </c>
       <c r="F25" s="10">
         <f t="shared" si="12"/>
-        <v>3568.1202375000021</v>
+        <v>4638.5563087500013</v>
       </c>
       <c r="G25" s="12">
         <f t="shared" si="13"/>
-        <v>0.35681202375000021</v>
+        <v>0.46385563087500015</v>
       </c>
       <c r="H25" s="12">
         <v>0.3</v>
       </c>
       <c r="I25" s="14">
         <f t="shared" si="14"/>
-        <v>13253.018025000001</v>
+        <v>17228.9234325</v>
       </c>
       <c r="K25" s="9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L25" s="10">
         <f t="shared" si="15"/>
-        <v>29859.84</v>
-      </c>
-      <c r="M25" s="9"/>
+        <v>69826.056973516796</v>
+      </c>
+      <c r="M25" s="29"/>
       <c r="N25" s="10">
         <f t="shared" si="22"/>
-        <v>5971.9680000000008</v>
+        <v>22344.338231525377</v>
       </c>
       <c r="O25" s="12">
-        <v>0.08</v>
+        <v>0.15</v>
       </c>
       <c r="P25" s="10">
         <f t="shared" si="16"/>
-        <v>3105.4233600000002</v>
+        <v>8518.7789507690504</v>
       </c>
       <c r="Q25" s="12">
         <f t="shared" si="17"/>
-        <v>0.31054233600000003</v>
+        <v>0.85187789507690503</v>
       </c>
       <c r="R25" s="14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S25" s="12">
         <f t="shared" si="18"/>
-        <v>0.2</v>
+        <v>0.32</v>
       </c>
       <c r="T25" s="14">
         <f t="shared" si="19"/>
-        <v>7166.3616000000011</v>
+        <v>29494.526465613497</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A26" s="9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B26" s="10">
         <f t="shared" si="20"/>
-        <v>44176.726750000002</v>
+        <v>57429.744774999999</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="11">
         <f t="shared" si="21"/>
-        <v>13253.018025000001</v>
+        <v>17228.9234325</v>
       </c>
       <c r="E26" s="12">
         <v>0.15</v>
       </c>
       <c r="F26" s="10">
         <f t="shared" si="12"/>
-        <v>4638.5563087500013</v>
+        <v>6030.1232013749996</v>
       </c>
       <c r="G26" s="12">
         <f t="shared" si="13"/>
-        <v>0.46385563087500015</v>
+        <v>0.60301232013749995</v>
       </c>
       <c r="H26" s="12">
         <v>0.3</v>
       </c>
       <c r="I26" s="14">
         <f t="shared" si="14"/>
-        <v>17228.9234325</v>
+        <v>22397.60046225</v>
       </c>
       <c r="K26" s="9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L26" s="10">
         <f t="shared" si="15"/>
-        <v>35831.808000000005</v>
-      </c>
-      <c r="M26" s="9"/>
+        <v>92170.395205042179</v>
+      </c>
+      <c r="M26" s="29"/>
       <c r="N26" s="10">
         <f t="shared" si="22"/>
-        <v>7166.3616000000011</v>
+        <v>29494.526465613497</v>
       </c>
       <c r="O26" s="12">
-        <v>0.08</v>
+        <v>0.15</v>
       </c>
       <c r="P26" s="10">
         <f t="shared" si="16"/>
-        <v>3726.5080320000002</v>
+        <v>11244.788215015145</v>
       </c>
       <c r="Q26" s="12">
         <f t="shared" si="17"/>
-        <v>0.37265080319999999</v>
+        <v>1.1244788215015145</v>
       </c>
       <c r="R26" s="14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S26" s="12">
         <f t="shared" si="18"/>
-        <v>0.2</v>
+        <v>0.32</v>
       </c>
       <c r="T26" s="14">
         <f t="shared" si="19"/>
-        <v>8599.633920000002</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A27" s="9">
+        <v>38932.774934609821</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="K29" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="L29" s="31"/>
+      <c r="M29" s="31"/>
+      <c r="N29" s="31"/>
+      <c r="O29" s="31"/>
+      <c r="P29" s="31"/>
+      <c r="Q29" s="31"/>
+      <c r="R29" s="31"/>
+      <c r="S29" s="31"/>
+      <c r="T29" s="31"/>
+    </row>
+    <row r="30" spans="1:21" ht="16.2" x14ac:dyDescent="0.4">
+      <c r="K30" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="L30" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="M30" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="N30" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="P30" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q30" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="R30" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="S30" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="T30" s="13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="K31" s="9">
+        <v>1</v>
+      </c>
+      <c r="L31" s="10">
+        <v>1000</v>
+      </c>
+      <c r="M31" s="29">
+        <v>1000</v>
+      </c>
+      <c r="N31" s="10">
+        <v>0</v>
+      </c>
+      <c r="O31" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="P31" s="10">
+        <f>N31-L31*O31</f>
+        <v>-500</v>
+      </c>
+      <c r="Q31" s="12">
+        <f>P31/10000</f>
+        <v>-0.05</v>
+      </c>
+      <c r="R31" s="14">
         <v>10</v>
       </c>
-      <c r="B27" s="10">
-        <f t="shared" si="20"/>
-        <v>57429.744774999999</v>
-      </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="11">
-        <f t="shared" si="21"/>
-        <v>17228.9234325</v>
-      </c>
-      <c r="E27" s="12">
-        <v>0.15</v>
-      </c>
-      <c r="F27" s="10">
-        <f t="shared" si="12"/>
-        <v>6030.1232013749996</v>
-      </c>
-      <c r="G27" s="12">
-        <f t="shared" si="13"/>
-        <v>0.60301232013749995</v>
-      </c>
-      <c r="H27" s="12">
+      <c r="S31" s="12">
+        <f>R31*0.05</f>
+        <v>0.5</v>
+      </c>
+      <c r="T31" s="14">
+        <f>(L31+N31)*S31</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="K32" s="9">
+        <v>2</v>
+      </c>
+      <c r="L32" s="10">
+        <f>M32+L31+N32</f>
+        <v>2000</v>
+      </c>
+      <c r="M32" s="30">
+        <f>1000-N32</f>
+        <v>500</v>
+      </c>
+      <c r="N32" s="10">
+        <f>T31</f>
+        <v>500</v>
+      </c>
+      <c r="O32" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="P32" s="10">
+        <f>0-(L32-N32)*O32</f>
+        <v>-750</v>
+      </c>
+      <c r="Q32" s="12">
+        <f t="shared" ref="Q32:Q40" si="23">P32/10000</f>
+        <v>-7.4999999999999997E-2</v>
+      </c>
+      <c r="R32" s="14">
+        <v>10</v>
+      </c>
+      <c r="S32" s="12">
+        <f t="shared" ref="S32:S40" si="24">R32*0.05</f>
+        <v>0.5</v>
+      </c>
+      <c r="T32" s="14">
+        <f t="shared" ref="T32:T40" si="25">(L32+N32)*S32</f>
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="33" spans="11:20" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="K33" s="9">
+        <v>3</v>
+      </c>
+      <c r="L33" s="10">
+        <f t="shared" ref="L33:L40" si="26">M33+L32+N33</f>
+        <v>3000</v>
+      </c>
+      <c r="M33" s="30">
+        <f t="shared" ref="M33:M40" si="27">1000-N33</f>
+        <v>-250</v>
+      </c>
+      <c r="N33" s="10">
+        <f t="shared" ref="N33:N40" si="28">T32</f>
+        <v>1250</v>
+      </c>
+      <c r="O33" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="P33" s="10">
+        <f>0-(L33-N33+M33)*O33-M33</f>
+        <v>-500</v>
+      </c>
+      <c r="Q33" s="12">
+        <f t="shared" si="23"/>
+        <v>-0.05</v>
+      </c>
+      <c r="R33" s="14">
+        <v>10</v>
+      </c>
+      <c r="S33" s="12">
+        <f t="shared" si="24"/>
+        <v>0.5</v>
+      </c>
+      <c r="T33" s="14">
+        <f t="shared" si="25"/>
+        <v>2125</v>
+      </c>
+    </row>
+    <row r="34" spans="11:20" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="K34" s="9">
+        <v>4</v>
+      </c>
+      <c r="L34" s="10">
+        <f t="shared" si="26"/>
+        <v>4000</v>
+      </c>
+      <c r="M34" s="30">
+        <f t="shared" si="27"/>
+        <v>-1125</v>
+      </c>
+      <c r="N34" s="10">
+        <f t="shared" si="28"/>
+        <v>2125</v>
+      </c>
+      <c r="O34" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="P34" s="10">
+        <f t="shared" ref="P34:P40" si="29">0-(L34-N34+M34)*O34-M34</f>
+        <v>750</v>
+      </c>
+      <c r="Q34" s="12">
+        <f t="shared" si="23"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="R34" s="14">
+        <v>10</v>
+      </c>
+      <c r="S34" s="12">
+        <f t="shared" si="24"/>
+        <v>0.5</v>
+      </c>
+      <c r="T34" s="14">
+        <f t="shared" si="25"/>
+        <v>3062.5</v>
+      </c>
+    </row>
+    <row r="35" spans="11:20" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="K35" s="9">
+        <v>5</v>
+      </c>
+      <c r="L35" s="10">
+        <f t="shared" si="26"/>
+        <v>5000</v>
+      </c>
+      <c r="M35" s="30">
+        <f t="shared" si="27"/>
+        <v>-2062.5</v>
+      </c>
+      <c r="N35" s="10">
+        <f t="shared" si="28"/>
+        <v>3062.5</v>
+      </c>
+      <c r="O35" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="P35" s="10">
+        <f t="shared" si="29"/>
+        <v>2125</v>
+      </c>
+      <c r="Q35" s="12">
+        <f t="shared" si="23"/>
+        <v>0.21249999999999999</v>
+      </c>
+      <c r="R35" s="14">
+        <v>10</v>
+      </c>
+      <c r="S35" s="12">
+        <f t="shared" si="24"/>
+        <v>0.5</v>
+      </c>
+      <c r="T35" s="14">
+        <f t="shared" si="25"/>
+        <v>4031.25</v>
+      </c>
+    </row>
+    <row r="36" spans="11:20" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="K36" s="9">
+        <v>6</v>
+      </c>
+      <c r="L36" s="10">
+        <f t="shared" si="26"/>
+        <v>6000</v>
+      </c>
+      <c r="M36" s="30">
+        <f t="shared" si="27"/>
+        <v>-3031.25</v>
+      </c>
+      <c r="N36" s="10">
+        <f t="shared" si="28"/>
+        <v>4031.25</v>
+      </c>
+      <c r="O36" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="P36" s="10">
+        <f t="shared" si="29"/>
+        <v>3562.5</v>
+      </c>
+      <c r="Q36" s="12">
+        <f t="shared" si="23"/>
+        <v>0.35625000000000001</v>
+      </c>
+      <c r="R36" s="14">
+        <v>10</v>
+      </c>
+      <c r="S36" s="12">
+        <f t="shared" si="24"/>
+        <v>0.5</v>
+      </c>
+      <c r="T36" s="14">
+        <f t="shared" si="25"/>
+        <v>5015.625</v>
+      </c>
+    </row>
+    <row r="37" spans="11:20" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="K37" s="9">
+        <v>7</v>
+      </c>
+      <c r="L37" s="10">
+        <f t="shared" si="26"/>
+        <v>7000</v>
+      </c>
+      <c r="M37" s="30">
+        <f t="shared" si="27"/>
+        <v>-4015.625</v>
+      </c>
+      <c r="N37" s="10">
+        <f t="shared" si="28"/>
+        <v>5015.625</v>
+      </c>
+      <c r="O37" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="P37" s="10">
+        <f t="shared" si="29"/>
+        <v>5031.25</v>
+      </c>
+      <c r="Q37" s="12">
+        <f t="shared" si="23"/>
+        <v>0.50312500000000004</v>
+      </c>
+      <c r="R37" s="14">
+        <v>10</v>
+      </c>
+      <c r="S37" s="12">
+        <f t="shared" si="24"/>
+        <v>0.5</v>
+      </c>
+      <c r="T37" s="14">
+        <f t="shared" si="25"/>
+        <v>6007.8125</v>
+      </c>
+    </row>
+    <row r="38" spans="11:20" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="K38" s="9">
+        <v>8</v>
+      </c>
+      <c r="L38" s="10">
+        <f t="shared" si="26"/>
+        <v>8000</v>
+      </c>
+      <c r="M38" s="30">
+        <f t="shared" si="27"/>
+        <v>-5007.8125</v>
+      </c>
+      <c r="N38" s="10">
+        <f t="shared" si="28"/>
+        <v>6007.8125</v>
+      </c>
+      <c r="O38" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="P38" s="10">
+        <f t="shared" si="29"/>
+        <v>6515.625</v>
+      </c>
+      <c r="Q38" s="12">
+        <f t="shared" si="23"/>
+        <v>0.65156250000000004</v>
+      </c>
+      <c r="R38" s="14">
+        <v>10</v>
+      </c>
+      <c r="S38" s="12">
+        <f t="shared" si="24"/>
+        <v>0.5</v>
+      </c>
+      <c r="T38" s="14">
+        <f t="shared" si="25"/>
+        <v>7003.90625</v>
+      </c>
+    </row>
+    <row r="39" spans="11:20" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="K39" s="9">
+        <v>9</v>
+      </c>
+      <c r="L39" s="10">
+        <f t="shared" si="26"/>
+        <v>9000</v>
+      </c>
+      <c r="M39" s="30">
+        <f t="shared" si="27"/>
+        <v>-6003.90625</v>
+      </c>
+      <c r="N39" s="10">
+        <f t="shared" si="28"/>
+        <v>7003.90625</v>
+      </c>
+      <c r="O39" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="P39" s="10">
+        <f t="shared" si="29"/>
+        <v>8007.8125</v>
+      </c>
+      <c r="Q39" s="12">
+        <f t="shared" si="23"/>
+        <v>0.80078125</v>
+      </c>
+      <c r="R39" s="14">
+        <v>10</v>
+      </c>
+      <c r="S39" s="12">
+        <f t="shared" si="24"/>
+        <v>0.5</v>
+      </c>
+      <c r="T39" s="14">
+        <f t="shared" si="25"/>
+        <v>8001.953125</v>
+      </c>
+    </row>
+    <row r="40" spans="11:20" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="K40" s="9">
+        <v>10</v>
+      </c>
+      <c r="L40" s="10">
+        <f t="shared" si="26"/>
+        <v>10000</v>
+      </c>
+      <c r="M40" s="30">
+        <f t="shared" si="27"/>
+        <v>-7001.953125</v>
+      </c>
+      <c r="N40" s="10">
+        <f t="shared" si="28"/>
+        <v>8001.953125</v>
+      </c>
+      <c r="O40" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="P40" s="10">
+        <f t="shared" si="29"/>
+        <v>9503.90625</v>
+      </c>
+      <c r="Q40" s="12">
+        <f t="shared" si="23"/>
+        <v>0.95039062500000004</v>
+      </c>
+      <c r="R40" s="14">
+        <v>10</v>
+      </c>
+      <c r="S40" s="12">
+        <f t="shared" si="24"/>
+        <v>0.5</v>
+      </c>
+      <c r="T40" s="14">
+        <f t="shared" si="25"/>
+        <v>9000.9765625</v>
+      </c>
+    </row>
+    <row r="42" spans="11:20" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="K42" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="L42" s="31"/>
+      <c r="M42" s="31"/>
+      <c r="N42" s="31"/>
+      <c r="O42" s="31"/>
+      <c r="P42" s="31"/>
+      <c r="Q42" s="31"/>
+      <c r="R42" s="31"/>
+      <c r="S42" s="31"/>
+      <c r="T42" s="31"/>
+    </row>
+    <row r="43" spans="11:20" ht="16.2" x14ac:dyDescent="0.4">
+      <c r="K43" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="L43" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="M43" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="N43" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="O43" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="P43" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q43" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="R43" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="S43" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="T43" s="13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="11:20" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="K44" s="9">
+        <v>1</v>
+      </c>
+      <c r="L44" s="10">
+        <v>2000</v>
+      </c>
+      <c r="M44" s="29">
+        <v>2000</v>
+      </c>
+      <c r="N44" s="10">
+        <v>0</v>
+      </c>
+      <c r="O44" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="P44" s="10">
+        <f>N44-L44*O44</f>
+        <v>-1000</v>
+      </c>
+      <c r="Q44" s="12">
+        <f>P44/10000</f>
+        <v>-0.1</v>
+      </c>
+      <c r="R44" s="14">
+        <v>10</v>
+      </c>
+      <c r="S44" s="12">
+        <f>R44*0.05</f>
+        <v>0.5</v>
+      </c>
+      <c r="T44" s="14">
+        <f>(L44+N44)*S44</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="45" spans="11:20" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="K45" s="9">
+        <v>2</v>
+      </c>
+      <c r="L45" s="10">
+        <f>M45+L44+N45</f>
+        <v>4000</v>
+      </c>
+      <c r="M45" s="30">
+        <f>2000-N45</f>
+        <v>1000</v>
+      </c>
+      <c r="N45" s="10">
+        <f>T44</f>
+        <v>1000</v>
+      </c>
+      <c r="O45" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="P45" s="10">
+        <f>0-(L45-N45)*O45</f>
+        <v>-1500</v>
+      </c>
+      <c r="Q45" s="12">
+        <f t="shared" ref="Q45:Q53" si="30">P45/10000</f>
+        <v>-0.15</v>
+      </c>
+      <c r="R45" s="14">
+        <v>10</v>
+      </c>
+      <c r="S45" s="12">
+        <f t="shared" ref="S45:S53" si="31">R45*0.05</f>
+        <v>0.5</v>
+      </c>
+      <c r="T45" s="14">
+        <f t="shared" ref="T45:T53" si="32">(L45+N45)*S45</f>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="46" spans="11:20" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="K46" s="9">
+        <v>3</v>
+      </c>
+      <c r="L46" s="10">
+        <f t="shared" ref="L46:L53" si="33">M46+L45+N46</f>
+        <v>5000</v>
+      </c>
+      <c r="M46" s="30">
+        <f t="shared" ref="M46:M53" si="34">1000-N46</f>
+        <v>-1500</v>
+      </c>
+      <c r="N46" s="10">
+        <f t="shared" ref="N46:N53" si="35">T45</f>
+        <v>2500</v>
+      </c>
+      <c r="O46" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="P46" s="10">
+        <f>0-(L46-N46+M46)*O46-M46</f>
+        <v>1000</v>
+      </c>
+      <c r="Q46" s="12">
+        <f t="shared" si="30"/>
+        <v>0.1</v>
+      </c>
+      <c r="R46" s="14">
+        <v>10</v>
+      </c>
+      <c r="S46" s="12">
+        <f t="shared" si="31"/>
+        <v>0.5</v>
+      </c>
+      <c r="T46" s="14">
+        <f t="shared" si="32"/>
+        <v>3750</v>
+      </c>
+    </row>
+    <row r="47" spans="11:20" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="K47" s="9">
+        <v>4</v>
+      </c>
+      <c r="L47" s="10">
+        <f t="shared" si="33"/>
+        <v>6000</v>
+      </c>
+      <c r="M47" s="30">
+        <f t="shared" si="34"/>
+        <v>-2750</v>
+      </c>
+      <c r="N47" s="10">
+        <f t="shared" si="35"/>
+        <v>3750</v>
+      </c>
+      <c r="O47" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="P47" s="10">
+        <f t="shared" ref="P47:P53" si="36">0-(L47-N47+M47)*O47-M47</f>
+        <v>3000</v>
+      </c>
+      <c r="Q47" s="12">
+        <f t="shared" si="30"/>
         <v>0.3</v>
       </c>
-      <c r="I27" s="14">
-        <f t="shared" si="14"/>
-        <v>22397.60046225</v>
-      </c>
-      <c r="K27" s="9">
+      <c r="R47" s="14">
         <v>10</v>
       </c>
-      <c r="L27" s="10">
-        <f t="shared" si="15"/>
-        <v>42998.169600000008</v>
-      </c>
-      <c r="M27" s="9"/>
-      <c r="N27" s="10">
-        <f t="shared" si="22"/>
-        <v>8599.633920000002</v>
-      </c>
-      <c r="O27" s="12">
-        <v>0.08</v>
-      </c>
-      <c r="P27" s="10">
-        <f t="shared" si="16"/>
-        <v>4471.8096384000009</v>
-      </c>
-      <c r="Q27" s="12">
-        <f t="shared" si="17"/>
-        <v>0.44718096384000011</v>
-      </c>
-      <c r="R27" s="14">
-        <v>2</v>
-      </c>
-      <c r="S27" s="12">
-        <f t="shared" si="18"/>
-        <v>0.2</v>
-      </c>
-      <c r="T27" s="14">
-        <f t="shared" si="19"/>
-        <v>10319.560704000003</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A28" s="9">
-        <v>11</v>
-      </c>
-      <c r="B28" s="10">
-        <f t="shared" si="20"/>
-        <v>74658.668207499999</v>
-      </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="11">
-        <f t="shared" si="21"/>
-        <v>22397.60046225</v>
-      </c>
-      <c r="E28" s="12">
-        <v>0.15</v>
-      </c>
-      <c r="F28" s="10">
-        <f t="shared" si="12"/>
-        <v>7839.1601617875003</v>
-      </c>
-      <c r="G28" s="12">
-        <f t="shared" si="13"/>
-        <v>0.78391601617875006</v>
-      </c>
-      <c r="H28" s="12">
-        <v>0.3</v>
-      </c>
-      <c r="I28" s="14">
-        <f t="shared" si="14"/>
-        <v>29116.880600925</v>
-      </c>
-      <c r="K28" s="9">
-        <v>11</v>
-      </c>
-      <c r="L28" s="10">
-        <f t="shared" si="15"/>
-        <v>51597.803520000009</v>
-      </c>
-      <c r="M28" s="9"/>
-      <c r="N28" s="10">
-        <f t="shared" si="22"/>
-        <v>10319.560704000003</v>
-      </c>
-      <c r="O28" s="12">
-        <v>0.08</v>
-      </c>
-      <c r="P28" s="10">
-        <f t="shared" si="16"/>
-        <v>5366.1715660800019</v>
-      </c>
-      <c r="Q28" s="12">
-        <f t="shared" si="17"/>
-        <v>0.53661715660800013</v>
-      </c>
-      <c r="R28" s="14">
-        <v>2</v>
-      </c>
-      <c r="S28" s="12">
-        <f t="shared" si="18"/>
-        <v>0.2</v>
-      </c>
-      <c r="T28" s="14">
-        <f t="shared" si="19"/>
-        <v>12383.472844800002</v>
+      <c r="S47" s="12">
+        <f t="shared" si="31"/>
+        <v>0.5</v>
+      </c>
+      <c r="T47" s="14">
+        <f t="shared" si="32"/>
+        <v>4875</v>
+      </c>
+    </row>
+    <row r="48" spans="11:20" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="K48" s="9">
+        <v>5</v>
+      </c>
+      <c r="L48" s="10">
+        <f t="shared" si="33"/>
+        <v>7000</v>
+      </c>
+      <c r="M48" s="30">
+        <f t="shared" si="34"/>
+        <v>-3875</v>
+      </c>
+      <c r="N48" s="10">
+        <f t="shared" si="35"/>
+        <v>4875</v>
+      </c>
+      <c r="O48" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="P48" s="10">
+        <f t="shared" si="36"/>
+        <v>4750</v>
+      </c>
+      <c r="Q48" s="12">
+        <f t="shared" si="30"/>
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="R48" s="14">
+        <v>10</v>
+      </c>
+      <c r="S48" s="12">
+        <f t="shared" si="31"/>
+        <v>0.5</v>
+      </c>
+      <c r="T48" s="14">
+        <f t="shared" si="32"/>
+        <v>5937.5</v>
+      </c>
+    </row>
+    <row r="49" spans="11:20" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="K49" s="9">
+        <v>6</v>
+      </c>
+      <c r="L49" s="10">
+        <f t="shared" si="33"/>
+        <v>8000</v>
+      </c>
+      <c r="M49" s="30">
+        <f t="shared" si="34"/>
+        <v>-4937.5</v>
+      </c>
+      <c r="N49" s="10">
+        <f t="shared" si="35"/>
+        <v>5937.5</v>
+      </c>
+      <c r="O49" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="P49" s="10">
+        <f t="shared" si="36"/>
+        <v>6375</v>
+      </c>
+      <c r="Q49" s="12">
+        <f t="shared" si="30"/>
+        <v>0.63749999999999996</v>
+      </c>
+      <c r="R49" s="14">
+        <v>10</v>
+      </c>
+      <c r="S49" s="12">
+        <f t="shared" si="31"/>
+        <v>0.5</v>
+      </c>
+      <c r="T49" s="14">
+        <f t="shared" si="32"/>
+        <v>6968.75</v>
+      </c>
+    </row>
+    <row r="50" spans="11:20" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="K50" s="9">
+        <v>7</v>
+      </c>
+      <c r="L50" s="10">
+        <f t="shared" si="33"/>
+        <v>9000</v>
+      </c>
+      <c r="M50" s="30">
+        <f t="shared" si="34"/>
+        <v>-5968.75</v>
+      </c>
+      <c r="N50" s="10">
+        <f t="shared" si="35"/>
+        <v>6968.75</v>
+      </c>
+      <c r="O50" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="P50" s="10">
+        <f t="shared" si="36"/>
+        <v>7937.5</v>
+      </c>
+      <c r="Q50" s="12">
+        <f t="shared" si="30"/>
+        <v>0.79374999999999996</v>
+      </c>
+      <c r="R50" s="14">
+        <v>10</v>
+      </c>
+      <c r="S50" s="12">
+        <f t="shared" si="31"/>
+        <v>0.5</v>
+      </c>
+      <c r="T50" s="14">
+        <f t="shared" si="32"/>
+        <v>7984.375</v>
+      </c>
+    </row>
+    <row r="51" spans="11:20" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="K51" s="9">
+        <v>8</v>
+      </c>
+      <c r="L51" s="10">
+        <f t="shared" si="33"/>
+        <v>10000</v>
+      </c>
+      <c r="M51" s="30">
+        <f t="shared" si="34"/>
+        <v>-6984.375</v>
+      </c>
+      <c r="N51" s="10">
+        <f t="shared" si="35"/>
+        <v>7984.375</v>
+      </c>
+      <c r="O51" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="P51" s="10">
+        <f t="shared" si="36"/>
+        <v>9468.75</v>
+      </c>
+      <c r="Q51" s="12">
+        <f t="shared" si="30"/>
+        <v>0.94687500000000002</v>
+      </c>
+      <c r="R51" s="14">
+        <v>10</v>
+      </c>
+      <c r="S51" s="12">
+        <f t="shared" si="31"/>
+        <v>0.5</v>
+      </c>
+      <c r="T51" s="14">
+        <f t="shared" si="32"/>
+        <v>8992.1875</v>
+      </c>
+    </row>
+    <row r="52" spans="11:20" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="K52" s="9">
+        <v>9</v>
+      </c>
+      <c r="L52" s="10">
+        <f t="shared" si="33"/>
+        <v>11000</v>
+      </c>
+      <c r="M52" s="30">
+        <f t="shared" si="34"/>
+        <v>-7992.1875</v>
+      </c>
+      <c r="N52" s="10">
+        <f t="shared" si="35"/>
+        <v>8992.1875</v>
+      </c>
+      <c r="O52" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="P52" s="10">
+        <f t="shared" si="36"/>
+        <v>10984.375</v>
+      </c>
+      <c r="Q52" s="12">
+        <f t="shared" si="30"/>
+        <v>1.0984375</v>
+      </c>
+      <c r="R52" s="14">
+        <v>10</v>
+      </c>
+      <c r="S52" s="12">
+        <f t="shared" si="31"/>
+        <v>0.5</v>
+      </c>
+      <c r="T52" s="14">
+        <f t="shared" si="32"/>
+        <v>9996.09375</v>
+      </c>
+    </row>
+    <row r="53" spans="11:20" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="K53" s="9">
+        <v>10</v>
+      </c>
+      <c r="L53" s="10">
+        <f t="shared" si="33"/>
+        <v>12000</v>
+      </c>
+      <c r="M53" s="30">
+        <f t="shared" si="34"/>
+        <v>-8996.09375</v>
+      </c>
+      <c r="N53" s="10">
+        <f t="shared" si="35"/>
+        <v>9996.09375</v>
+      </c>
+      <c r="O53" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="P53" s="10">
+        <f t="shared" si="36"/>
+        <v>12492.1875</v>
+      </c>
+      <c r="Q53" s="12">
+        <f t="shared" si="30"/>
+        <v>1.24921875</v>
+      </c>
+      <c r="R53" s="14">
+        <v>10</v>
+      </c>
+      <c r="S53" s="12">
+        <f t="shared" si="31"/>
+        <v>0.5</v>
+      </c>
+      <c r="T53" s="14">
+        <f t="shared" si="32"/>
+        <v>10998.046875</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
+    <mergeCell ref="K29:T29"/>
+    <mergeCell ref="K42:T42"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A16:I16"/>
+    <mergeCell ref="A15:I15"/>
     <mergeCell ref="K2:T2"/>
-    <mergeCell ref="K16:T16"/>
+    <mergeCell ref="K15:T15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7E13B5D-8E41-4686-A2FA-3353016D91F2}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>